--- a/Projekt3_Sortowanie/Projekt3-dane.xlsx
+++ b/Projekt3_Sortowanie/Projekt3-dane.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dane" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Tablica rosnąca</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>Tablica V-kształtna</t>
+  </si>
+  <si>
+    <t>QuickSort - iteracja</t>
+  </si>
+  <si>
+    <t>QuickSort - rekurencja</t>
+  </si>
+  <si>
+    <t>Tablica A-kształtna</t>
+  </si>
+  <si>
+    <t>Klucz środkowy</t>
+  </si>
+  <si>
+    <t>Klucz skrajnie prawy</t>
+  </si>
+  <si>
+    <t>Klucz losowy</t>
   </si>
 </sst>
 </file>
@@ -120,6 +138,5006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Tablica rosnąca</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InsertionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$C$3:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CocktailSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$D$3:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1514281248"/>
+        <c:axId val="1514273088"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>6443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66347</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70241</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74690</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79537</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>88210</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94761</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>103596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1514275264"/>
+        <c:axId val="1514279072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1514281248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość tablicy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514273088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514273088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514281248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514279072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>oś</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> SelectionSort</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514275264"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514275264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1514279072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort - iteracja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort - rekurencja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$M$3:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$O$3:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1514277440"/>
+        <c:axId val="1514275808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1514277440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514275808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514275808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514277440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Klucz skrajnie prawy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$Q$3:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$S$3:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Klucz losowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$Q$3:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$T$3:$T$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1688589776"/>
+        <c:axId val="1688589232"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dane!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Klucz środkowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dane!$Q$3:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dane!$R$3:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19980</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26883</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28772</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30706</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32717</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48611</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1772988096"/>
+        <c:axId val="1772982656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1688589776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688589232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1688589232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688589776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1772982656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1772988096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1772988096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1772982656"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,9 +5415,19 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,8 +5435,19 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -424,8 +5463,29 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50000</v>
       </c>
@@ -441,8 +5501,29 @@
       <c r="E3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="R3">
+        <v>3221</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>55000</v>
       </c>
@@ -458,8 +5539,29 @@
       <c r="E4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>55000</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>55000</v>
+      </c>
+      <c r="R4">
+        <v>3869</v>
+      </c>
+      <c r="S4">
+        <v>23</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60000</v>
       </c>
@@ -475,8 +5577,29 @@
       <c r="E5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>60000</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R5">
+        <v>4605</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>65000</v>
       </c>
@@ -492,8 +5615,29 @@
       <c r="E6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>65000</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>65000</v>
+      </c>
+      <c r="R6">
+        <v>5402</v>
+      </c>
+      <c r="S6">
+        <v>28</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70000</v>
       </c>
@@ -509,8 +5653,29 @@
       <c r="E7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>70000</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>70000</v>
+      </c>
+      <c r="R7">
+        <v>6268</v>
+      </c>
+      <c r="S7">
+        <v>29</v>
+      </c>
+      <c r="T7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>75000</v>
       </c>
@@ -526,8 +5691,29 @@
       <c r="E8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>75000</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>75000</v>
+      </c>
+      <c r="R8">
+        <v>7202</v>
+      </c>
+      <c r="S8">
+        <v>33</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80000</v>
       </c>
@@ -543,8 +5729,29 @@
       <c r="E9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>80000</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>80000</v>
+      </c>
+      <c r="R9">
+        <v>8188</v>
+      </c>
+      <c r="S9">
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>85000</v>
       </c>
@@ -560,8 +5767,29 @@
       <c r="E10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="R10">
+        <v>9241</v>
+      </c>
+      <c r="S10">
+        <v>39</v>
+      </c>
+      <c r="T10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90000</v>
       </c>
@@ -577,8 +5805,29 @@
       <c r="E11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="R11">
+        <v>10356</v>
+      </c>
+      <c r="S11">
+        <v>42</v>
+      </c>
+      <c r="T11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>95000</v>
       </c>
@@ -594,8 +5843,29 @@
       <c r="E12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>95000</v>
+      </c>
+      <c r="N12">
+        <v>21</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>95000</v>
+      </c>
+      <c r="R12">
+        <v>11535</v>
+      </c>
+      <c r="S12">
+        <v>42</v>
+      </c>
+      <c r="T12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>100000</v>
       </c>
@@ -611,8 +5881,29 @@
       <c r="E13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N13">
+        <v>22</v>
+      </c>
+      <c r="O13">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="R13">
+        <v>12791</v>
+      </c>
+      <c r="S13">
+        <v>46</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>105000</v>
       </c>
@@ -628,8 +5919,29 @@
       <c r="E14">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>105000</v>
+      </c>
+      <c r="N14">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>105000</v>
+      </c>
+      <c r="R14">
+        <v>14094</v>
+      </c>
+      <c r="S14">
+        <v>48</v>
+      </c>
+      <c r="T14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>110000</v>
       </c>
@@ -645,8 +5957,29 @@
       <c r="E15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>110000</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>110000</v>
+      </c>
+      <c r="R15">
+        <v>15474</v>
+      </c>
+      <c r="S15">
+        <v>51</v>
+      </c>
+      <c r="T15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>115000</v>
       </c>
@@ -662,8 +5995,29 @@
       <c r="E16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>115000</v>
+      </c>
+      <c r="N16">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>115000</v>
+      </c>
+      <c r="R16">
+        <v>16908</v>
+      </c>
+      <c r="S16">
+        <v>55</v>
+      </c>
+      <c r="T16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>120000</v>
       </c>
@@ -679,8 +6033,29 @@
       <c r="E17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="N17">
+        <v>27</v>
+      </c>
+      <c r="O17">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="R17">
+        <v>18412</v>
+      </c>
+      <c r="S17">
+        <v>57</v>
+      </c>
+      <c r="T17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>125000</v>
       </c>
@@ -696,8 +6071,29 @@
       <c r="E18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>125000</v>
+      </c>
+      <c r="N18">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>125000</v>
+      </c>
+      <c r="R18">
+        <v>19980</v>
+      </c>
+      <c r="S18">
+        <v>59</v>
+      </c>
+      <c r="T18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>130000</v>
       </c>
@@ -713,8 +6109,29 @@
       <c r="E19">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>130000</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>130000</v>
+      </c>
+      <c r="R19">
+        <v>21602</v>
+      </c>
+      <c r="S19">
+        <v>62</v>
+      </c>
+      <c r="T19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>135000</v>
       </c>
@@ -730,8 +6147,29 @@
       <c r="E20">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>135000</v>
+      </c>
+      <c r="N20">
+        <v>31</v>
+      </c>
+      <c r="O20">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>135000</v>
+      </c>
+      <c r="R20">
+        <v>23295</v>
+      </c>
+      <c r="S20">
+        <v>63</v>
+      </c>
+      <c r="T20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>140000</v>
       </c>
@@ -747,8 +6185,29 @@
       <c r="E21">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>140000</v>
+      </c>
+      <c r="N21">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>140000</v>
+      </c>
+      <c r="R21">
+        <v>25057</v>
+      </c>
+      <c r="S21">
+        <v>66</v>
+      </c>
+      <c r="T21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>145000</v>
       </c>
@@ -764,8 +6223,29 @@
       <c r="E22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>145000</v>
+      </c>
+      <c r="N22">
+        <v>33</v>
+      </c>
+      <c r="O22">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>145000</v>
+      </c>
+      <c r="R22">
+        <v>26883</v>
+      </c>
+      <c r="S22">
+        <v>68</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>150000</v>
       </c>
@@ -781,8 +6261,29 @@
       <c r="E23">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>150000</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>150000</v>
+      </c>
+      <c r="R23">
+        <v>28772</v>
+      </c>
+      <c r="S23">
+        <v>74</v>
+      </c>
+      <c r="T23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>155000</v>
       </c>
@@ -798,8 +6299,29 @@
       <c r="E24">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>155000</v>
+      </c>
+      <c r="N24">
+        <v>36</v>
+      </c>
+      <c r="O24">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>155000</v>
+      </c>
+      <c r="R24">
+        <v>30706</v>
+      </c>
+      <c r="S24">
+        <v>77</v>
+      </c>
+      <c r="T24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>160000</v>
       </c>
@@ -815,8 +6337,29 @@
       <c r="E25">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>160000</v>
+      </c>
+      <c r="N25">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>160000</v>
+      </c>
+      <c r="R25">
+        <v>32717</v>
+      </c>
+      <c r="S25">
+        <v>81</v>
+      </c>
+      <c r="T25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>165000</v>
       </c>
@@ -832,8 +6375,29 @@
       <c r="E26">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>165000</v>
+      </c>
+      <c r="N26">
+        <v>38</v>
+      </c>
+      <c r="O26">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>165000</v>
+      </c>
+      <c r="R26">
+        <v>35008</v>
+      </c>
+      <c r="S26">
+        <v>86</v>
+      </c>
+      <c r="T26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>170000</v>
       </c>
@@ -849,8 +6413,29 @@
       <c r="E27">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>170000</v>
+      </c>
+      <c r="N27">
+        <v>40</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>170000</v>
+      </c>
+      <c r="R27">
+        <v>36935</v>
+      </c>
+      <c r="S27">
+        <v>88</v>
+      </c>
+      <c r="T27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>175000</v>
       </c>
@@ -866,8 +6451,29 @@
       <c r="E28">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>175000</v>
+      </c>
+      <c r="N28">
+        <v>41</v>
+      </c>
+      <c r="O28">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>175000</v>
+      </c>
+      <c r="R28">
+        <v>39154</v>
+      </c>
+      <c r="S28">
+        <v>90</v>
+      </c>
+      <c r="T28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>180000</v>
       </c>
@@ -883,8 +6489,29 @@
       <c r="E29">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>180000</v>
+      </c>
+      <c r="N29">
+        <v>42</v>
+      </c>
+      <c r="O29">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>180000</v>
+      </c>
+      <c r="R29">
+        <v>41400</v>
+      </c>
+      <c r="S29">
+        <v>94</v>
+      </c>
+      <c r="T29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>185000</v>
       </c>
@@ -900,8 +6527,29 @@
       <c r="E30">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <v>185000</v>
+      </c>
+      <c r="N30">
+        <v>44</v>
+      </c>
+      <c r="O30">
+        <v>44</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>185000</v>
+      </c>
+      <c r="R30">
+        <v>43744</v>
+      </c>
+      <c r="S30">
+        <v>92</v>
+      </c>
+      <c r="T30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>190000</v>
       </c>
@@ -917,8 +6565,29 @@
       <c r="E31">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <v>190000</v>
+      </c>
+      <c r="N31">
+        <v>44</v>
+      </c>
+      <c r="O31">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>190000</v>
+      </c>
+      <c r="R31">
+        <v>46145</v>
+      </c>
+      <c r="S31">
+        <v>94</v>
+      </c>
+      <c r="T31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>195000</v>
       </c>
@@ -934,8 +6603,29 @@
       <c r="E32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>195000</v>
+      </c>
+      <c r="N32">
+        <v>46</v>
+      </c>
+      <c r="O32">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>195000</v>
+      </c>
+      <c r="R32">
+        <v>48611</v>
+      </c>
+      <c r="S32">
+        <v>97</v>
+      </c>
+      <c r="T32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>200000</v>
       </c>
@@ -951,8 +6641,29 @@
       <c r="E33">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>200000</v>
+      </c>
+      <c r="N33">
+        <v>46</v>
+      </c>
+      <c r="O33">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>200000</v>
+      </c>
+      <c r="R33">
+        <v>51142</v>
+      </c>
+      <c r="S33">
+        <v>102</v>
+      </c>
+      <c r="T33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -961,7 +6672,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -978,7 +6689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>50000</v>
       </c>
@@ -995,7 +6706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>55000</v>
       </c>
@@ -1012,7 +6723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>60000</v>
       </c>
@@ -1029,7 +6740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>65000</v>
       </c>
@@ -1046,7 +6757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>70000</v>
       </c>
@@ -1063,7 +6774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>75000</v>
       </c>
@@ -1080,7 +6791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>80000</v>
       </c>
@@ -1097,7 +6808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>85000</v>
       </c>
@@ -1114,7 +6825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>90000</v>
       </c>
@@ -1131,7 +6842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>95000</v>
       </c>
@@ -1148,7 +6859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>100000</v>
       </c>
@@ -1165,7 +6876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>105000</v>
       </c>
@@ -1182,7 +6893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>110000</v>
       </c>
@@ -2609,170 +8320,557 @@
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>50000</v>
       </c>
+      <c r="B135">
+        <v>6845</v>
+      </c>
+      <c r="C135">
+        <v>5588</v>
+      </c>
+      <c r="D135">
+        <v>9485</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>55000</v>
       </c>
+      <c r="B136">
+        <v>8335</v>
+      </c>
+      <c r="C136">
+        <v>6780</v>
+      </c>
+      <c r="D136">
+        <v>11383</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>60000</v>
       </c>
+      <c r="B137">
+        <v>9952</v>
+      </c>
+      <c r="C137">
+        <v>8062</v>
+      </c>
+      <c r="D137">
+        <v>13642</v>
+      </c>
+      <c r="E137">
+        <v>17</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>65000</v>
       </c>
+      <c r="B138">
+        <v>11715</v>
+      </c>
+      <c r="C138">
+        <v>9486</v>
+      </c>
+      <c r="D138">
+        <v>15993</v>
+      </c>
+      <c r="E138">
+        <v>19</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>70000</v>
       </c>
+      <c r="B139">
+        <v>13498</v>
+      </c>
+      <c r="C139">
+        <v>10935</v>
+      </c>
+      <c r="D139">
+        <v>18599</v>
+      </c>
+      <c r="E139">
+        <v>21</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>75000</v>
       </c>
+      <c r="B140">
+        <v>15548</v>
+      </c>
+      <c r="C140">
+        <v>12581</v>
+      </c>
+      <c r="D140">
+        <v>21236</v>
+      </c>
+      <c r="E140">
+        <v>22</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>80000</v>
       </c>
+      <c r="B141">
+        <v>17678</v>
+      </c>
+      <c r="C141">
+        <v>14375</v>
+      </c>
+      <c r="D141">
+        <v>24140</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>85000</v>
       </c>
+      <c r="B142">
+        <v>19940</v>
+      </c>
+      <c r="C142">
+        <v>16185</v>
+      </c>
+      <c r="D142">
+        <v>27278</v>
+      </c>
+      <c r="E142">
+        <v>26</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>90000</v>
       </c>
+      <c r="B143">
+        <v>22383</v>
+      </c>
+      <c r="C143">
+        <v>18258</v>
+      </c>
+      <c r="D143">
+        <v>30497</v>
+      </c>
+      <c r="E143">
+        <v>28</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>95000</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>24964</v>
+      </c>
+      <c r="C144">
+        <v>20221</v>
+      </c>
+      <c r="D144">
+        <v>33931</v>
+      </c>
+      <c r="E144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>27582</v>
+      </c>
+      <c r="C145">
+        <v>22369</v>
+      </c>
+      <c r="D145">
+        <v>38045</v>
+      </c>
+      <c r="E145">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>105000</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>30476</v>
+      </c>
+      <c r="C146">
+        <v>24722</v>
+      </c>
+      <c r="D146">
+        <v>41731</v>
+      </c>
+      <c r="E146">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>110000</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>33531</v>
+      </c>
+      <c r="C147">
+        <v>27175</v>
+      </c>
+      <c r="D147">
+        <v>45458</v>
+      </c>
+      <c r="E147">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>115000</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>36538</v>
+      </c>
+      <c r="C148">
+        <v>29702</v>
+      </c>
+      <c r="D148">
+        <v>49729</v>
+      </c>
+      <c r="E148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>120000</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>39826</v>
+      </c>
+      <c r="C149">
+        <v>32458</v>
+      </c>
+      <c r="D149">
+        <v>54336</v>
+      </c>
+      <c r="E149">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>125000</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>43200</v>
+      </c>
+      <c r="C150">
+        <v>34972</v>
+      </c>
+      <c r="D150">
+        <v>59187</v>
+      </c>
+      <c r="E150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>130000</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>46552</v>
+      </c>
+      <c r="C151">
+        <v>37853</v>
+      </c>
+      <c r="D151">
+        <v>63587</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>135000</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>50379</v>
+      </c>
+      <c r="C152">
+        <v>40945</v>
+      </c>
+      <c r="D152">
+        <v>68858</v>
+      </c>
+      <c r="E152">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>140000</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>54104</v>
+      </c>
+      <c r="C153">
+        <v>43996</v>
+      </c>
+      <c r="D153">
+        <v>73911</v>
+      </c>
+      <c r="E153">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>145000</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>58086</v>
+      </c>
+      <c r="C154">
+        <v>47251</v>
+      </c>
+      <c r="D154">
+        <v>79333</v>
+      </c>
+      <c r="E154">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>150000</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>62502</v>
+      </c>
+      <c r="C155">
+        <v>50222</v>
+      </c>
+      <c r="D155">
+        <v>84558</v>
+      </c>
+      <c r="E155">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155000</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>66405</v>
+      </c>
+      <c r="C156">
+        <v>53697</v>
+      </c>
+      <c r="D156">
+        <v>90616</v>
+      </c>
+      <c r="E156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>160000</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>70790</v>
+      </c>
+      <c r="C157">
+        <v>57481</v>
+      </c>
+      <c r="D157">
+        <v>96122</v>
+      </c>
+      <c r="E157">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>165000</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>75489</v>
+      </c>
+      <c r="C158">
+        <v>61526</v>
+      </c>
+      <c r="D158">
+        <v>103230</v>
+      </c>
+      <c r="E158">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>170000</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>79625</v>
+      </c>
+      <c r="C159">
+        <v>65088</v>
+      </c>
+      <c r="D159">
+        <v>108623</v>
+      </c>
+      <c r="E159">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>175000</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>84946</v>
+      </c>
+      <c r="C160">
+        <v>69105</v>
+      </c>
+      <c r="D160">
+        <v>115078</v>
+      </c>
+      <c r="E160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>180000</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>89304</v>
+      </c>
+      <c r="C161">
+        <v>72990</v>
+      </c>
+      <c r="D161">
+        <v>122681</v>
+      </c>
+      <c r="E161">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>185000</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>94562</v>
+      </c>
+      <c r="C162">
+        <v>77343</v>
+      </c>
+      <c r="D162">
+        <v>129633</v>
+      </c>
+      <c r="E162">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>190000</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>99776</v>
+      </c>
+      <c r="C163">
+        <v>80916</v>
+      </c>
+      <c r="D163">
+        <v>135707</v>
+      </c>
+      <c r="E163">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>195000</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>105469</v>
+      </c>
+      <c r="C164">
+        <v>85642</v>
+      </c>
+      <c r="D164">
+        <v>144005</v>
+      </c>
+      <c r="E164">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>200000</v>
       </c>
+      <c r="B165">
+        <v>110366</v>
+      </c>
+      <c r="C165">
+        <v>89813</v>
+      </c>
+      <c r="D165">
+        <v>150376</v>
+      </c>
+      <c r="E165">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A133:E133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>